--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Igf1r</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.10173900176778</v>
+        <v>3.907455</v>
       </c>
       <c r="H2">
-        <v>2.10173900176778</v>
+        <v>11.722365</v>
       </c>
       <c r="I2">
-        <v>0.01624265759023601</v>
+        <v>0.02724526174224166</v>
       </c>
       <c r="J2">
-        <v>0.01624265759023601</v>
+        <v>0.02724526174224165</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N2">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O2">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P2">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q2">
-        <v>41.16464654739342</v>
+        <v>90.595139993335</v>
       </c>
       <c r="R2">
-        <v>41.16464654739342</v>
+        <v>815.356259940015</v>
       </c>
       <c r="S2">
-        <v>0.006252343580755001</v>
+        <v>0.01148714913461926</v>
       </c>
       <c r="T2">
-        <v>0.006252343580755001</v>
+        <v>0.01148714913461926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.10173900176778</v>
+        <v>3.907455</v>
       </c>
       <c r="H3">
-        <v>2.10173900176778</v>
+        <v>11.722365</v>
       </c>
       <c r="I3">
-        <v>0.01624265759023601</v>
+        <v>0.02724526174224166</v>
       </c>
       <c r="J3">
-        <v>0.01624265759023601</v>
+        <v>0.02724526174224165</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N3">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O3">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P3">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q3">
-        <v>24.30651006288685</v>
+        <v>45.191398583135</v>
       </c>
       <c r="R3">
-        <v>24.30651006288685</v>
+        <v>406.722587248215</v>
       </c>
       <c r="S3">
-        <v>0.003691824536554183</v>
+        <v>0.005730112400783138</v>
       </c>
       <c r="T3">
-        <v>0.003691824536554183</v>
+        <v>0.005730112400783137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.10173900176778</v>
+        <v>3.907455</v>
       </c>
       <c r="H4">
-        <v>2.10173900176778</v>
+        <v>11.722365</v>
       </c>
       <c r="I4">
-        <v>0.01624265759023601</v>
+        <v>0.02724526174224166</v>
       </c>
       <c r="J4">
-        <v>0.01624265759023601</v>
+        <v>0.02724526174224165</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N4">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O4">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P4">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q4">
-        <v>4.20340774283371</v>
+        <v>8.191156236980001</v>
       </c>
       <c r="R4">
-        <v>4.20340774283371</v>
+        <v>73.72040613282</v>
       </c>
       <c r="S4">
-        <v>0.0006384398172335665</v>
+        <v>0.001038610164806614</v>
       </c>
       <c r="T4">
-        <v>0.0006384398172335665</v>
+        <v>0.001038610164806614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.10173900176778</v>
+        <v>3.907455</v>
       </c>
       <c r="H5">
-        <v>2.10173900176778</v>
+        <v>11.722365</v>
       </c>
       <c r="I5">
-        <v>0.01624265759023601</v>
+        <v>0.02724526174224166</v>
       </c>
       <c r="J5">
-        <v>0.01624265759023601</v>
+        <v>0.02724526174224165</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7305828858592</v>
+        <v>18.14382633333333</v>
       </c>
       <c r="N5">
-        <v>17.7305828858592</v>
+        <v>54.431479</v>
       </c>
       <c r="O5">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="P5">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="Q5">
-        <v>37.2650575752866</v>
+        <v>70.896184925315</v>
       </c>
       <c r="R5">
-        <v>37.2650575752866</v>
+        <v>638.0656643278351</v>
       </c>
       <c r="S5">
-        <v>0.005660049655693256</v>
+        <v>0.008989390042032646</v>
       </c>
       <c r="T5">
-        <v>0.005660049655693256</v>
+        <v>0.008989390042032646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>87.5714135655337</v>
+        <v>87.66866533333332</v>
       </c>
       <c r="H6">
-        <v>87.5714135655337</v>
+        <v>263.005996</v>
       </c>
       <c r="I6">
-        <v>0.6767693248502945</v>
+        <v>0.6112816996228118</v>
       </c>
       <c r="J6">
-        <v>0.6767693248502945</v>
+        <v>0.6112816996228116</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N6">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O6">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P6">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q6">
-        <v>1715.173141883345</v>
+        <v>2032.615860938173</v>
       </c>
       <c r="R6">
-        <v>1715.173141883345</v>
+        <v>18293.54274844355</v>
       </c>
       <c r="S6">
-        <v>0.2605112076254852</v>
+        <v>0.2577286323494514</v>
       </c>
       <c r="T6">
-        <v>0.2605112076254852</v>
+        <v>0.2577286323494513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>87.5714135655337</v>
+        <v>87.66866533333332</v>
       </c>
       <c r="H7">
-        <v>87.5714135655337</v>
+        <v>263.005996</v>
       </c>
       <c r="I7">
-        <v>0.6767693248502945</v>
+        <v>0.6112816996228118</v>
       </c>
       <c r="J7">
-        <v>0.6767693248502945</v>
+        <v>0.6112816996228116</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N7">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O7">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P7">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q7">
-        <v>1012.759169079289</v>
+        <v>1013.925841328982</v>
       </c>
       <c r="R7">
-        <v>1012.759169079289</v>
+        <v>9125.332571960837</v>
       </c>
       <c r="S7">
-        <v>0.153824187032759</v>
+        <v>0.12856227554422</v>
       </c>
       <c r="T7">
-        <v>0.153824187032759</v>
+        <v>0.12856227554422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>87.5714135655337</v>
+        <v>87.66866533333332</v>
       </c>
       <c r="H8">
-        <v>87.5714135655337</v>
+        <v>263.005996</v>
       </c>
       <c r="I8">
-        <v>0.6767693248502945</v>
+        <v>0.6112816996228118</v>
       </c>
       <c r="J8">
-        <v>0.6767693248502945</v>
+        <v>0.6112816996228116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N8">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O8">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P8">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q8">
-        <v>175.1398996367525</v>
+        <v>183.7788880058364</v>
       </c>
       <c r="R8">
-        <v>175.1398996367525</v>
+        <v>1654.009992052528</v>
       </c>
       <c r="S8">
-        <v>0.02660134166261324</v>
+        <v>0.02330252477641566</v>
       </c>
       <c r="T8">
-        <v>0.02660134166261324</v>
+        <v>0.02330252477641565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>87.5714135655337</v>
+        <v>87.66866533333332</v>
       </c>
       <c r="H9">
-        <v>87.5714135655337</v>
+        <v>263.005996</v>
       </c>
       <c r="I9">
-        <v>0.6767693248502945</v>
+        <v>0.6112816996228118</v>
       </c>
       <c r="J9">
-        <v>0.6767693248502945</v>
+        <v>0.6112816996228116</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.7305828858592</v>
+        <v>18.14382633333333</v>
       </c>
       <c r="N9">
-        <v>17.7305828858592</v>
+        <v>54.431479</v>
       </c>
       <c r="O9">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="P9">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="Q9">
-        <v>1552.69220665555</v>
+        <v>1590.64503868312</v>
       </c>
       <c r="R9">
-        <v>1552.69220665555</v>
+        <v>14315.80534814808</v>
       </c>
       <c r="S9">
-        <v>0.2358325885294371</v>
+        <v>0.2016882669527248</v>
       </c>
       <c r="T9">
-        <v>0.2358325885294371</v>
+        <v>0.2016882669527248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>39.7230986367628</v>
+        <v>0.06961200000000001</v>
       </c>
       <c r="H10">
-        <v>39.7230986367628</v>
+        <v>0.208836</v>
       </c>
       <c r="I10">
-        <v>0.3069880175594694</v>
+        <v>0.0004853791433045106</v>
       </c>
       <c r="J10">
-        <v>0.3069880175594694</v>
+        <v>0.0004853791433045105</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N10">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O10">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P10">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q10">
-        <v>778.0163539688916</v>
+        <v>1.613968397644</v>
       </c>
       <c r="R10">
-        <v>778.0163539688916</v>
+        <v>14.525715578796</v>
       </c>
       <c r="S10">
-        <v>0.1181699823623976</v>
+        <v>0.0002046455878721869</v>
       </c>
       <c r="T10">
-        <v>0.1181699823623976</v>
+        <v>0.0002046455878721868</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>39.7230986367628</v>
+        <v>0.06961200000000001</v>
       </c>
       <c r="H11">
-        <v>39.7230986367628</v>
+        <v>0.208836</v>
       </c>
       <c r="I11">
-        <v>0.3069880175594694</v>
+        <v>0.0004853791433045106</v>
       </c>
       <c r="J11">
-        <v>0.3069880175594694</v>
+        <v>0.0004853791433045105</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N11">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O11">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P11">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q11">
-        <v>459.3957175136454</v>
+        <v>0.8050927363640001</v>
       </c>
       <c r="R11">
-        <v>459.3957175136454</v>
+        <v>7.245834627276001</v>
       </c>
       <c r="S11">
-        <v>0.06977589038972704</v>
+        <v>0.0001020829630650426</v>
       </c>
       <c r="T11">
-        <v>0.06977589038972704</v>
+        <v>0.0001020829630650425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>39.7230986367628</v>
+        <v>0.06961200000000001</v>
       </c>
       <c r="H12">
-        <v>39.7230986367628</v>
+        <v>0.208836</v>
       </c>
       <c r="I12">
-        <v>0.3069880175594694</v>
+        <v>0.0004853791433045106</v>
       </c>
       <c r="J12">
-        <v>0.3069880175594694</v>
+        <v>0.0004853791433045105</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N12">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O12">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P12">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q12">
-        <v>79.44486933852153</v>
+        <v>0.145926893072</v>
       </c>
       <c r="R12">
-        <v>79.44486933852153</v>
+        <v>1.313342037648</v>
       </c>
       <c r="S12">
-        <v>0.01206658286888844</v>
+        <v>1.850302327026621E-05</v>
       </c>
       <c r="T12">
-        <v>0.01206658286888844</v>
+        <v>1.85030232702662E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.06961200000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.208836</v>
+      </c>
+      <c r="I13">
+        <v>0.0004853791433045106</v>
+      </c>
+      <c r="J13">
+        <v>0.0004853791433045105</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.14382633333333</v>
+      </c>
+      <c r="N13">
+        <v>54.431479</v>
+      </c>
+      <c r="O13">
+        <v>0.3299432439694752</v>
+      </c>
+      <c r="P13">
+        <v>0.3299432439694752</v>
+      </c>
+      <c r="Q13">
+        <v>1.263028038716</v>
+      </c>
+      <c r="R13">
+        <v>11.367252348444</v>
+      </c>
+      <c r="S13">
+        <v>0.000160147569097015</v>
+      </c>
+      <c r="T13">
+        <v>0.000160147569097015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>51.77204933333334</v>
+      </c>
+      <c r="H14">
+        <v>155.316148</v>
+      </c>
+      <c r="I14">
+        <v>0.3609876594916421</v>
+      </c>
+      <c r="J14">
+        <v>0.360987659491642</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.18520366666667</v>
+      </c>
+      <c r="N14">
+        <v>69.555611</v>
+      </c>
+      <c r="O14">
+        <v>0.4216200689608106</v>
+      </c>
+      <c r="P14">
+        <v>0.4216200689608105</v>
+      </c>
+      <c r="Q14">
+        <v>1200.345508034047</v>
+      </c>
+      <c r="R14">
+        <v>10803.10957230643</v>
+      </c>
+      <c r="S14">
+        <v>0.1521996418888678</v>
+      </c>
+      <c r="T14">
+        <v>0.1521996418888677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>51.77204933333334</v>
+      </c>
+      <c r="H15">
+        <v>155.316148</v>
+      </c>
+      <c r="I15">
+        <v>0.3609876594916421</v>
+      </c>
+      <c r="J15">
+        <v>0.360987659491642</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.56543033333333</v>
+      </c>
+      <c r="N15">
+        <v>34.696291</v>
+      </c>
+      <c r="O15">
+        <v>0.210315924104302</v>
+      </c>
+      <c r="P15">
+        <v>0.2103159241043019</v>
+      </c>
+      <c r="Q15">
+        <v>598.7660297785632</v>
+      </c>
+      <c r="R15">
+        <v>5388.894268007069</v>
+      </c>
+      <c r="S15">
+        <v>0.07592145319623381</v>
+      </c>
+      <c r="T15">
+        <v>0.07592145319623378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>39.7230986367628</v>
-      </c>
-      <c r="H13">
-        <v>39.7230986367628</v>
-      </c>
-      <c r="I13">
-        <v>0.3069880175594694</v>
-      </c>
-      <c r="J13">
-        <v>0.3069880175594694</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>17.7305828858592</v>
-      </c>
-      <c r="N13">
-        <v>17.7305828858592</v>
-      </c>
-      <c r="O13">
-        <v>0.3484682001235868</v>
-      </c>
-      <c r="P13">
-        <v>0.3484682001235868</v>
-      </c>
-      <c r="Q13">
-        <v>704.3136928622833</v>
-      </c>
-      <c r="R13">
-        <v>704.3136928622833</v>
-      </c>
-      <c r="S13">
-        <v>0.1069755619384563</v>
-      </c>
-      <c r="T13">
-        <v>0.1069755619384563</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>51.77204933333334</v>
+      </c>
+      <c r="H16">
+        <v>155.316148</v>
+      </c>
+      <c r="I16">
+        <v>0.3609876594916421</v>
+      </c>
+      <c r="J16">
+        <v>0.360987659491642</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.096289333333333</v>
+      </c>
+      <c r="N16">
+        <v>6.288868</v>
+      </c>
+      <c r="O16">
+        <v>0.03812076296541245</v>
+      </c>
+      <c r="P16">
+        <v>0.03812076296541244</v>
+      </c>
+      <c r="Q16">
+        <v>108.5291947822738</v>
+      </c>
+      <c r="R16">
+        <v>976.762753040464</v>
+      </c>
+      <c r="S16">
+        <v>0.01376112500091991</v>
+      </c>
+      <c r="T16">
+        <v>0.0137611250009199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>51.77204933333334</v>
+      </c>
+      <c r="H17">
+        <v>155.316148</v>
+      </c>
+      <c r="I17">
+        <v>0.3609876594916421</v>
+      </c>
+      <c r="J17">
+        <v>0.360987659491642</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.14382633333333</v>
+      </c>
+      <c r="N17">
+        <v>54.431479</v>
+      </c>
+      <c r="O17">
+        <v>0.3299432439694752</v>
+      </c>
+      <c r="P17">
+        <v>0.3299432439694752</v>
+      </c>
+      <c r="Q17">
+        <v>939.3430720247658</v>
+      </c>
+      <c r="R17">
+        <v>8454.087648222892</v>
+      </c>
+      <c r="S17">
+        <v>0.1191054394056207</v>
+      </c>
+      <c r="T17">
+        <v>0.1191054394056207</v>
       </c>
     </row>
   </sheetData>
